--- a/Excel/Skill.xlsx
+++ b/Excel/Skill.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\06006854\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\a710594\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF2C0DC6-8E99-46BF-A637-41D975D45236}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F49DF471-78E3-4B37-86D3-6E754D310A86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="89">
   <si>
     <t>ID</t>
   </si>
@@ -246,45 +246,68 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Area</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EffectTarget</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Track</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>CastTarget</t>
+    <t>100</t>
+  </si>
+  <si>
+    <t>(0,0)(1,0)(-1,0)(0,1)(0,-1)</t>
+  </si>
+  <si>
+    <t>(0,0)(1,0)(-1,0)</t>
+  </si>
+  <si>
+    <t>-1</t>
+  </si>
+  <si>
+    <t>SubSkillID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>100</t>
-  </si>
-  <si>
-    <t>(0,0)</t>
-  </si>
-  <si>
-    <t>(0,0)(1,0)(-1,0)(0,1)(0,-1)</t>
-  </si>
-  <si>
-    <t>(0,0)(1,0)(-1,0)</t>
-  </si>
-  <si>
-    <t>-1</t>
-  </si>
-  <si>
-    <t>(0,0)</t>
+    <t>Array</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>(0,0)(0,-1)</t>
-  </si>
-  <si>
-    <t>SubSkillID</t>
+    <t>RangeTarget</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AreaType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AreaTarget</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>None = 1,
+Straight,
+Parabola,
+Through,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>All=0
+Self=1
+Us=2
+Them=3
+None=4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>火焰拳_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Point=1
+Array=2
+Global=3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(0,0)(0,1)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -328,9 +351,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -670,100 +696,81 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L24"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:K1"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="L27" sqref="L27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="9" max="9" width="12.1796875" customWidth="1"/>
+    <col min="2" max="2" width="10.08984375" customWidth="1"/>
+    <col min="8" max="9" width="13.81640625" customWidth="1"/>
     <col min="10" max="10" width="14" customWidth="1"/>
+    <col min="12" max="12" width="12.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
+    <row r="1" spans="1:13" ht="85" x14ac:dyDescent="0.4">
+      <c r="H1" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F2" t="s">
         <v>72</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G2" t="s">
         <v>73</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H2" t="s">
+        <v>81</v>
+      </c>
+      <c r="I2" t="s">
+        <v>82</v>
+      </c>
+      <c r="J2" t="s">
+        <v>83</v>
+      </c>
+      <c r="K2" t="s">
+        <v>80</v>
+      </c>
+      <c r="L2" t="s">
         <v>74</v>
       </c>
-      <c r="I1" t="s">
-        <v>77</v>
-      </c>
-      <c r="J1" t="s">
-        <v>75</v>
-      </c>
-      <c r="K1" t="s">
-        <v>76</v>
-      </c>
-      <c r="L1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A2" t="s">
+      <c r="M2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
         <v>5</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" t="s">
         <v>6</v>
-      </c>
-      <c r="C2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J2" s="1">
-        <v>3</v>
-      </c>
-      <c r="K2">
-        <v>1</v>
-      </c>
-      <c r="L2">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" t="s">
-        <v>10</v>
       </c>
       <c r="C3" t="s">
         <v>7</v>
@@ -772,112 +779,115 @@
         <v>8</v>
       </c>
       <c r="E3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H3" s="1">
+        <v>0</v>
+      </c>
+      <c r="I3" s="1">
+        <v>1</v>
+      </c>
+      <c r="J3" s="1">
+        <v>0</v>
+      </c>
+      <c r="K3" s="1"/>
+      <c r="L3">
+        <v>1</v>
+      </c>
+      <c r="M3">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J3">
-        <v>3</v>
-      </c>
-      <c r="K3">
-        <v>3</v>
-      </c>
-      <c r="L3">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A4" t="s">
-        <v>11</v>
-      </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D4" t="s">
         <v>8</v>
       </c>
       <c r="E4" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H4" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="I4" s="1" t="s">
+      <c r="H4" s="1">
+        <v>0</v>
+      </c>
+      <c r="I4" s="1">
+        <v>1</v>
+      </c>
+      <c r="J4" s="1">
+        <v>0</v>
+      </c>
+      <c r="K4" s="1"/>
+      <c r="L4">
+        <v>3</v>
+      </c>
+      <c r="M4">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
         <v>11</v>
       </c>
-      <c r="J4">
-        <v>3</v>
-      </c>
-      <c r="K4">
-        <v>2</v>
-      </c>
-      <c r="L4">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A5" t="s">
-        <v>15</v>
-      </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C5" t="s">
         <v>13</v>
       </c>
       <c r="D5" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E5" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H5" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J5">
-        <v>3</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
+      <c r="H5" s="1">
+        <v>0</v>
+      </c>
+      <c r="I5" s="1">
+        <v>1</v>
+      </c>
+      <c r="J5" s="1">
+        <v>0</v>
+      </c>
+      <c r="K5" s="1"/>
       <c r="L5">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.4">
+        <v>2</v>
+      </c>
+      <c r="M5">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C6" t="s">
         <v>13</v>
@@ -886,264 +896,273 @@
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="H6" s="1">
-        <v>-1</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J6">
-        <v>3</v>
-      </c>
-      <c r="K6">
-        <v>4</v>
+        <v>0</v>
+      </c>
+      <c r="I6" s="1">
+        <v>2</v>
+      </c>
+      <c r="J6" s="1">
+        <v>0</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>76</v>
       </c>
       <c r="L6">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="D7" t="s">
         <v>5</v>
       </c>
       <c r="E7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H7" s="1">
+        <v>0</v>
+      </c>
+      <c r="I7" s="1">
+        <v>1</v>
+      </c>
+      <c r="J7" s="1">
+        <v>0</v>
+      </c>
+      <c r="K7" s="1"/>
+      <c r="L7">
+        <v>4</v>
+      </c>
+      <c r="M7">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8" t="s">
         <v>24</v>
       </c>
-      <c r="F7" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="G7" s="1" t="s">
+      <c r="F8" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="G8" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H7" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="I7" s="1" t="s">
+      <c r="H8" s="1">
+        <v>3</v>
+      </c>
+      <c r="I8" s="1">
+        <v>1</v>
+      </c>
+      <c r="J8" s="1">
+        <v>3</v>
+      </c>
+      <c r="K8" s="1"/>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" t="s">
         <v>9</v>
       </c>
-      <c r="J7">
-        <v>2</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A8" t="s">
-        <v>25</v>
-      </c>
-      <c r="B8" t="s">
-        <v>26</v>
-      </c>
-      <c r="C8" t="s">
-        <v>27</v>
-      </c>
-      <c r="D8" t="s">
-        <v>9</v>
-      </c>
-      <c r="E8" t="s">
+      <c r="E9" t="s">
         <v>28</v>
       </c>
-      <c r="F8" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="G8" s="1" t="s">
+      <c r="F9" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="G9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H8" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="J8">
-        <v>1</v>
-      </c>
-      <c r="K8">
-        <v>1</v>
-      </c>
-      <c r="L8">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A9" t="s">
+      <c r="H9" s="1">
+        <v>1</v>
+      </c>
+      <c r="I9" s="1">
+        <v>1</v>
+      </c>
+      <c r="J9" s="1">
+        <v>1</v>
+      </c>
+      <c r="K9" s="1"/>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A10" t="s">
         <v>29</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B10" t="s">
         <v>30</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C10" t="s">
         <v>31</v>
-      </c>
-      <c r="D9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9" t="s">
-        <v>32</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="J9">
-        <v>1</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A10" t="s">
-        <v>33</v>
-      </c>
-      <c r="B10" t="s">
-        <v>34</v>
-      </c>
-      <c r="C10" t="s">
-        <v>35</v>
       </c>
       <c r="D10" t="s">
         <v>8</v>
       </c>
       <c r="E10" t="s">
+        <v>32</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H10" s="1">
+        <v>2</v>
+      </c>
+      <c r="I10" s="1">
+        <v>1</v>
+      </c>
+      <c r="J10" s="1">
+        <v>2</v>
+      </c>
+      <c r="K10" s="1"/>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" t="s">
         <v>11</v>
       </c>
-      <c r="F10" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="G10" s="1" t="s">
+      <c r="F11" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="G11" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H10" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J10">
-        <v>3</v>
-      </c>
-      <c r="K10">
-        <v>1</v>
-      </c>
-      <c r="L10">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A11" t="s">
+      <c r="H11" s="1">
+        <v>0</v>
+      </c>
+      <c r="I11" s="1">
+        <v>1</v>
+      </c>
+      <c r="J11" s="1">
+        <v>0</v>
+      </c>
+      <c r="K11" s="1"/>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A12" t="s">
         <v>14</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B12" t="s">
         <v>36</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C12" t="s">
         <v>37</v>
-      </c>
-      <c r="D11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E11" t="s">
-        <v>38</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="J11">
-        <v>1</v>
-      </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
-      <c r="L11">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A12" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12" t="s">
-        <v>39</v>
-      </c>
-      <c r="C12" t="s">
-        <v>7</v>
       </c>
       <c r="D12" t="s">
         <v>9</v>
       </c>
       <c r="E12" t="s">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J12">
-        <v>3</v>
-      </c>
-      <c r="K12">
-        <v>1</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="H12" s="1">
+        <v>1</v>
+      </c>
+      <c r="I12" s="1">
+        <v>1</v>
+      </c>
+      <c r="J12" s="1">
+        <v>1</v>
+      </c>
+      <c r="K12" s="1"/>
       <c r="L12">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C13" t="s">
         <v>7</v>
@@ -1152,439 +1171,499 @@
         <v>9</v>
       </c>
       <c r="E13" t="s">
+        <v>15</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H13" s="1">
+        <v>0</v>
+      </c>
+      <c r="I13" s="1">
+        <v>1</v>
+      </c>
+      <c r="J13" s="1">
+        <v>0</v>
+      </c>
+      <c r="K13" s="1"/>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14" t="s">
         <v>18</v>
       </c>
-      <c r="F13" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="G13" s="1" t="s">
+      <c r="F14" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="G14" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H13" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J13">
-        <v>3</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A14" t="s">
+      <c r="H14" s="1">
+        <v>0</v>
+      </c>
+      <c r="I14" s="1">
+        <v>2</v>
+      </c>
+      <c r="J14" s="1">
+        <v>0</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A15" t="s">
         <v>41</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B15" t="s">
         <v>42</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C15" t="s">
         <v>43</v>
-      </c>
-      <c r="D14" t="s">
-        <v>5</v>
-      </c>
-      <c r="E14" t="s">
-        <v>44</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="J14">
-        <v>1</v>
-      </c>
-      <c r="K14">
-        <v>1</v>
-      </c>
-      <c r="L14">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A15" t="s">
-        <v>45</v>
-      </c>
-      <c r="B15" t="s">
-        <v>46</v>
-      </c>
-      <c r="C15" t="s">
-        <v>47</v>
       </c>
       <c r="D15" t="s">
         <v>5</v>
       </c>
       <c r="E15" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H15" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J15">
-        <v>3</v>
-      </c>
-      <c r="K15">
-        <v>1</v>
-      </c>
+      <c r="H15" s="1">
+        <v>2</v>
+      </c>
+      <c r="I15" s="1">
+        <v>1</v>
+      </c>
+      <c r="J15" s="1">
+        <v>2</v>
+      </c>
+      <c r="K15" s="1"/>
       <c r="L15">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="B16" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C16" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D16" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E16" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="G16" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H16" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J16">
+      <c r="H16" s="1">
         <v>3</v>
       </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
+      <c r="I16" s="1">
+        <v>1</v>
+      </c>
+      <c r="J16" s="1">
+        <v>3</v>
+      </c>
+      <c r="K16" s="1"/>
       <c r="L16">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="B17" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C17" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D17" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E17" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="G17" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H17" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="J17">
-        <v>2</v>
-      </c>
-      <c r="K17">
-        <v>1</v>
-      </c>
+      <c r="H17" s="1">
+        <v>3</v>
+      </c>
+      <c r="I17" s="1">
+        <v>1</v>
+      </c>
+      <c r="J17" s="1">
+        <v>3</v>
+      </c>
+      <c r="K17" s="1"/>
       <c r="L17">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B18" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C18" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D18" t="s">
         <v>5</v>
       </c>
       <c r="E18" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="G18" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H18" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="I18" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="J18">
-        <v>1</v>
-      </c>
-      <c r="K18">
-        <v>1</v>
+      <c r="H18" s="1">
+        <v>3</v>
+      </c>
+      <c r="I18" s="1">
+        <v>2</v>
+      </c>
+      <c r="J18" s="1">
+        <v>3</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>76</v>
       </c>
       <c r="L18">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>56</v>
       </c>
       <c r="B19" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C19" t="s">
-        <v>7</v>
+        <v>58</v>
       </c>
       <c r="D19" t="s">
         <v>5</v>
       </c>
       <c r="E19" t="s">
+        <v>56</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H19" s="1">
+        <v>2</v>
+      </c>
+      <c r="I19" s="1">
+        <v>1</v>
+      </c>
+      <c r="J19" s="1">
+        <v>2</v>
+      </c>
+      <c r="K19" s="1"/>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>59</v>
+      </c>
+      <c r="C20" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" t="s">
+        <v>5</v>
+      </c>
+      <c r="E20" t="s">
         <v>33</v>
       </c>
-      <c r="F19" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="G19" s="1" t="s">
+      <c r="F20" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="G20" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H19" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="I19" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J19">
+      <c r="H20" s="1">
+        <v>0</v>
+      </c>
+      <c r="I20" s="1">
+        <v>1</v>
+      </c>
+      <c r="J20" s="1">
+        <v>0</v>
+      </c>
+      <c r="K20" s="1"/>
+      <c r="L20">
         <v>3</v>
       </c>
-      <c r="K19">
-        <v>3</v>
-      </c>
-      <c r="L19">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A20" t="s">
+      <c r="M20">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A21" t="s">
         <v>28</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B21" t="s">
         <v>60</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C21" t="s">
         <v>61</v>
-      </c>
-      <c r="D20" t="s">
-        <v>8</v>
-      </c>
-      <c r="E20" t="s">
-        <v>62</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="I20" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="J20">
-        <v>2</v>
-      </c>
-      <c r="K20">
-        <v>1</v>
-      </c>
-      <c r="L20">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A21" t="s">
-        <v>38</v>
-      </c>
-      <c r="B21" t="s">
-        <v>63</v>
-      </c>
-      <c r="C21" t="s">
-        <v>64</v>
       </c>
       <c r="D21" t="s">
         <v>8</v>
       </c>
       <c r="E21" t="s">
+        <v>62</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H21" s="1">
+        <v>3</v>
+      </c>
+      <c r="I21" s="1">
+        <v>1</v>
+      </c>
+      <c r="J21" s="1">
+        <v>3</v>
+      </c>
+      <c r="K21" s="1"/>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A22" t="s">
+        <v>38</v>
+      </c>
+      <c r="B22" t="s">
+        <v>63</v>
+      </c>
+      <c r="C22" t="s">
+        <v>64</v>
+      </c>
+      <c r="D22" t="s">
+        <v>8</v>
+      </c>
+      <c r="E22" t="s">
         <v>65</v>
       </c>
-      <c r="F21" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="G21" s="1" t="s">
+      <c r="F22" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="G22" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H21" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="I21" s="1">
+      <c r="H22" s="1">
         <v>4</v>
       </c>
-      <c r="J21">
+      <c r="I22" s="1">
+        <v>1</v>
+      </c>
+      <c r="J22" s="1">
         <v>4</v>
       </c>
-      <c r="K21">
-        <v>1</v>
-      </c>
-      <c r="L21">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A22" t="s">
+      <c r="K22" s="1"/>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A23" t="s">
         <v>66</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B23" t="s">
         <v>67</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C23" t="s">
         <v>68</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D23" t="s">
         <v>5</v>
       </c>
-      <c r="E22" t="s">
+      <c r="E23" t="s">
         <v>69</v>
       </c>
-      <c r="F22" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="G22" s="1" t="s">
+      <c r="F23" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="G23" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H22" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="I22" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J22">
+      <c r="H23" s="1">
+        <v>0</v>
+      </c>
+      <c r="I23" s="1">
+        <v>1</v>
+      </c>
+      <c r="J23" s="1">
+        <v>0</v>
+      </c>
+      <c r="K23" s="1"/>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A24">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>86</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>36</v>
+      </c>
+      <c r="F24" s="1">
+        <v>100</v>
+      </c>
+      <c r="G24" s="1">
+        <v>0</v>
+      </c>
+      <c r="H24" s="1">
+        <v>-1</v>
+      </c>
+      <c r="I24" s="1">
         <v>3</v>
       </c>
-      <c r="K22">
-        <v>1</v>
-      </c>
-      <c r="L22">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A23">
-        <v>22</v>
-      </c>
-      <c r="D23">
-        <v>0</v>
-      </c>
-      <c r="E23">
-        <v>36</v>
-      </c>
-      <c r="F23" s="1">
-        <v>100</v>
-      </c>
-      <c r="G23" s="1">
-        <v>0</v>
-      </c>
-      <c r="H23" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="I23" s="1">
-        <v>-1</v>
-      </c>
-      <c r="J23">
-        <v>1</v>
-      </c>
-      <c r="K23">
-        <v>1</v>
-      </c>
-      <c r="L23">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A24">
+      <c r="J24" s="1">
+        <v>1</v>
+      </c>
+      <c r="K24" s="1"/>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A25">
         <v>23</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B25" t="s">
         <v>70</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C25" t="s">
         <v>7</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D25" t="s">
         <v>5</v>
       </c>
-      <c r="E24" t="s">
+      <c r="E25" t="s">
         <v>71</v>
       </c>
-      <c r="F24" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="G24" s="1" t="s">
+      <c r="F25" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="G25" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H24" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="I24" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J24">
-        <v>3</v>
-      </c>
-      <c r="K24">
-        <v>1</v>
-      </c>
-      <c r="L24">
+      <c r="H25" s="1">
+        <v>0</v>
+      </c>
+      <c r="I25" s="1">
+        <v>2</v>
+      </c>
+      <c r="J25" s="1">
+        <v>0</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
         <v>-1</v>
       </c>
     </row>
@@ -1593,7 +1672,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" copies="0" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="B24:E24 A1:E22" numberStoredAsText="1"/>
+    <ignoredError sqref="B25:E25 A2:E23" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/Excel/Skill.xlsx
+++ b/Excel/Skill.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\a710594\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F49DF471-78E3-4B37-86D3-6E754D310A86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFDEF10F-1E3D-47D6-ACE0-F95927720D81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="97">
   <si>
     <t>ID</t>
   </si>
@@ -115,9 +115,6 @@
     <t>治癒</t>
   </si>
   <si>
-    <t>使目標回復HP</t>
-  </si>
-  <si>
     <t>15</t>
   </si>
   <si>
@@ -194,9 +191,6 @@
   </si>
   <si>
     <t>大治癒術</t>
-  </si>
-  <si>
-    <t>使目標回復大量HP</t>
   </si>
   <si>
     <t>狙擊</t>
@@ -308,6 +302,51 @@
   </si>
   <si>
     <t>(0,0)(0,1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>範圍治癒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使目標回復HP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使範圍內的目標回復HP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(0,0)(1,0)(-1,0)(0,1)(0,-1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>祈禱之箭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>對敵人造成{1}%魔法傷害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>對敵人造成{1}%魔法傷害，並且使我方HP最少的目標回復HP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使目標回復大量HP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>祈禱之箭_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>All=0
+Self=1
+Us=2
+Them=3
+None=4
+UsMinHP=5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -696,10 +735,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:M28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="L27" sqref="L27"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="N25" sqref="N25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
@@ -710,18 +749,18 @@
     <col min="12" max="12" width="12.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="85" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:13" ht="102" x14ac:dyDescent="0.4">
       <c r="H1" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="I1" s="2" t="s">
-        <v>87</v>
-      </c>
       <c r="J1" s="2" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.4">
@@ -741,28 +780,28 @@
         <v>4</v>
       </c>
       <c r="F2" t="s">
+        <v>70</v>
+      </c>
+      <c r="G2" t="s">
+        <v>71</v>
+      </c>
+      <c r="H2" t="s">
+        <v>79</v>
+      </c>
+      <c r="I2" t="s">
+        <v>80</v>
+      </c>
+      <c r="J2" t="s">
+        <v>81</v>
+      </c>
+      <c r="K2" t="s">
+        <v>78</v>
+      </c>
+      <c r="L2" t="s">
         <v>72</v>
       </c>
-      <c r="G2" t="s">
-        <v>73</v>
-      </c>
-      <c r="H2" t="s">
-        <v>81</v>
-      </c>
-      <c r="I2" t="s">
-        <v>82</v>
-      </c>
-      <c r="J2" t="s">
-        <v>83</v>
-      </c>
-      <c r="K2" t="s">
-        <v>80</v>
-      </c>
-      <c r="L2" t="s">
-        <v>74</v>
-      </c>
       <c r="M2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.4">
@@ -782,7 +821,7 @@
         <v>5</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>5</v>
@@ -821,7 +860,7 @@
         <v>9</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>18</v>
@@ -851,7 +890,7 @@
         <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>92</v>
       </c>
       <c r="D5" t="s">
         <v>8</v>
@@ -860,7 +899,7 @@
         <v>14</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>18</v>
@@ -899,7 +938,7 @@
         <v>17</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>18</v>
@@ -914,7 +953,7 @@
         <v>0</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="L6">
         <v>1</v>
@@ -940,7 +979,7 @@
         <v>20</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>14</v>
@@ -979,7 +1018,7 @@
         <v>24</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>18</v>
@@ -1018,7 +1057,7 @@
         <v>28</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>8</v>
@@ -1048,16 +1087,16 @@
         <v>30</v>
       </c>
       <c r="C10" t="s">
-        <v>31</v>
+        <v>88</v>
       </c>
       <c r="D10" t="s">
         <v>8</v>
       </c>
       <c r="E10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>18</v>
@@ -1081,13 +1120,13 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" t="s">
         <v>33</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>34</v>
-      </c>
-      <c r="C11" t="s">
-        <v>35</v>
       </c>
       <c r="D11" t="s">
         <v>8</v>
@@ -1096,7 +1135,7 @@
         <v>11</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>5</v>
@@ -1123,19 +1162,19 @@
         <v>14</v>
       </c>
       <c r="B12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" t="s">
         <v>36</v>
-      </c>
-      <c r="C12" t="s">
-        <v>37</v>
       </c>
       <c r="D12" t="s">
         <v>9</v>
       </c>
       <c r="E12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>8</v>
@@ -1162,7 +1201,7 @@
         <v>17</v>
       </c>
       <c r="B13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C13" t="s">
         <v>7</v>
@@ -1174,7 +1213,7 @@
         <v>15</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>9</v>
@@ -1201,7 +1240,7 @@
         <v>20</v>
       </c>
       <c r="B14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C14" t="s">
         <v>7</v>
@@ -1213,7 +1252,7 @@
         <v>18</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>5</v>
@@ -1228,7 +1267,7 @@
         <v>0</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="L14">
         <v>1</v>
@@ -1239,22 +1278,22 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
+        <v>40</v>
+      </c>
+      <c r="B15" t="s">
         <v>41</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" t="s">
         <v>42</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
+        <v>5</v>
+      </c>
+      <c r="E15" t="s">
         <v>43</v>
       </c>
-      <c r="D15" t="s">
-        <v>5</v>
-      </c>
-      <c r="E15" t="s">
-        <v>44</v>
-      </c>
       <c r="F15" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>18</v>
@@ -1278,22 +1317,22 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
+        <v>44</v>
+      </c>
+      <c r="B16" t="s">
         <v>45</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C16" t="s">
         <v>46</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D16" t="s">
+        <v>5</v>
+      </c>
+      <c r="E16" t="s">
         <v>47</v>
       </c>
-      <c r="D16" t="s">
-        <v>5</v>
-      </c>
-      <c r="E16" t="s">
-        <v>48</v>
-      </c>
       <c r="F16" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G16" s="1" t="s">
         <v>18</v>
@@ -1317,22 +1356,22 @@
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B17" t="s">
+        <v>48</v>
+      </c>
+      <c r="C17" t="s">
         <v>49</v>
-      </c>
-      <c r="C17" t="s">
-        <v>50</v>
       </c>
       <c r="D17" t="s">
         <v>9</v>
       </c>
       <c r="E17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G17" s="1" t="s">
         <v>18</v>
@@ -1356,22 +1395,22 @@
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
+        <v>51</v>
+      </c>
+      <c r="B18" t="s">
         <v>52</v>
       </c>
-      <c r="B18" t="s">
+      <c r="C18" t="s">
         <v>53</v>
       </c>
-      <c r="C18" t="s">
+      <c r="D18" t="s">
+        <v>5</v>
+      </c>
+      <c r="E18" t="s">
         <v>54</v>
       </c>
-      <c r="D18" t="s">
-        <v>5</v>
-      </c>
-      <c r="E18" t="s">
-        <v>55</v>
-      </c>
       <c r="F18" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G18" s="1" t="s">
         <v>18</v>
@@ -1386,7 +1425,7 @@
         <v>3</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="L18">
         <v>1</v>
@@ -1397,22 +1436,22 @@
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
+        <v>55</v>
+      </c>
+      <c r="B19" t="s">
         <v>56</v>
       </c>
-      <c r="B19" t="s">
-        <v>57</v>
-      </c>
       <c r="C19" t="s">
-        <v>58</v>
+        <v>94</v>
       </c>
       <c r="D19" t="s">
         <v>5</v>
       </c>
       <c r="E19" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G19" s="1" t="s">
         <v>18</v>
@@ -1439,7 +1478,7 @@
         <v>24</v>
       </c>
       <c r="B20" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C20" t="s">
         <v>7</v>
@@ -1448,10 +1487,10 @@
         <v>5</v>
       </c>
       <c r="E20" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G20" s="1" t="s">
         <v>14</v>
@@ -1478,22 +1517,22 @@
         <v>28</v>
       </c>
       <c r="B21" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C21" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D21" t="s">
         <v>8</v>
       </c>
       <c r="E21" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="H21" s="1">
         <v>3</v>
@@ -1514,22 +1553,22 @@
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B22" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C22" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D22" t="s">
         <v>8</v>
       </c>
       <c r="E22" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G22" s="1" t="s">
         <v>8</v>
@@ -1553,22 +1592,22 @@
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
+        <v>64</v>
+      </c>
+      <c r="B23" t="s">
+        <v>65</v>
+      </c>
+      <c r="C23" t="s">
         <v>66</v>
       </c>
-      <c r="B23" t="s">
+      <c r="D23" t="s">
+        <v>5</v>
+      </c>
+      <c r="E23" t="s">
         <v>67</v>
       </c>
-      <c r="C23" t="s">
-        <v>68</v>
-      </c>
-      <c r="D23" t="s">
-        <v>5</v>
-      </c>
-      <c r="E23" t="s">
-        <v>69</v>
-      </c>
       <c r="F23" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G23" s="1" t="s">
         <v>5</v>
@@ -1595,16 +1634,16 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D24">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E24">
         <v>36</v>
       </c>
       <c r="F24" s="1">
-        <v>100</v>
+        <v>-1</v>
       </c>
       <c r="G24" s="1">
         <v>0</v>
@@ -1631,7 +1670,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C25" t="s">
         <v>7</v>
@@ -1640,10 +1679,10 @@
         <v>5</v>
       </c>
       <c r="E25" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G25" s="1" t="s">
         <v>5</v>
@@ -1658,12 +1697,123 @@
         <v>0</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A26">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>87</v>
+      </c>
+      <c r="C26" t="s">
+        <v>89</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="E26">
+        <v>40</v>
+      </c>
+      <c r="F26">
+        <v>100</v>
+      </c>
+      <c r="G26">
+        <v>5</v>
+      </c>
+      <c r="H26">
+        <v>2</v>
+      </c>
+      <c r="I26">
+        <v>2</v>
+      </c>
+      <c r="K26" t="s">
+        <v>90</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A27">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>91</v>
+      </c>
+      <c r="C27" t="s">
+        <v>93</v>
+      </c>
+      <c r="D27">
+        <v>2</v>
+      </c>
+      <c r="E27">
+        <v>41</v>
+      </c>
+      <c r="F27">
+        <v>100</v>
+      </c>
+      <c r="G27">
+        <v>5</v>
+      </c>
+      <c r="H27">
+        <v>3</v>
+      </c>
+      <c r="I27">
+        <v>1</v>
+      </c>
+      <c r="J27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>2</v>
+      </c>
+      <c r="M27">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A28">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>95</v>
+      </c>
+      <c r="D28">
+        <v>-1</v>
+      </c>
+      <c r="E28">
+        <v>42</v>
+      </c>
+      <c r="F28">
+        <v>-1</v>
+      </c>
+      <c r="G28">
+        <v>-1</v>
+      </c>
+      <c r="H28">
+        <v>2</v>
+      </c>
+      <c r="I28">
+        <v>3</v>
+      </c>
+      <c r="J28">
+        <v>5</v>
+      </c>
+      <c r="L28">
+        <v>-1</v>
+      </c>
+      <c r="M28">
         <v>-1</v>
       </c>
     </row>
@@ -1672,7 +1822,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" copies="0" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="B25:E25 A2:E23" numberStoredAsText="1"/>
+    <ignoredError sqref="B25:E25 A2:E4 A11:E18 A10:B10 D10:E10 A6:E9 A5:B5 D5:E5 A20:E23 A19:B19 D19:E19" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/Excel/Skill.xlsx
+++ b/Excel/Skill.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="95">
   <si>
     <t xml:space="preserve">All=0
 Self=1
@@ -397,16 +397,20 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -601,1087 +605,1087 @@
   </sheetPr>
   <dimension ref="A1:M28"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D28" activeCellId="0" sqref="D28"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H15" activeCellId="0" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.53515625" defaultRowHeight="16.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="10.09"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="55.38"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="8" style="0" width="13.81"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="12.36"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="10.09"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="55.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="8" style="1" width="13.81"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="12.36"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="73.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="J1" s="1" t="s">
+      <c r="H1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="E2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="0" t="s">
+      <c r="F2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="0" t="s">
+      <c r="G2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="0" t="s">
+      <c r="H2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="0" t="s">
+      <c r="I2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="0" t="s">
+      <c r="J2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="K2" s="0" t="s">
+      <c r="K2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="L2" s="0" t="s">
+      <c r="L2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="M2" s="0" t="s">
+      <c r="M2" s="1" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="D3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="0" t="s">
+      <c r="E3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G3" s="2" t="s">
+      <c r="F3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="H3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" s="2"/>
-      <c r="L3" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" s="0" t="n">
+      <c r="H3" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J3" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" s="3"/>
+      <c r="L3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" s="1" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c r="A4" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="0" t="s">
+      <c r="D4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="0" t="s">
+      <c r="E4" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G4" s="2" t="s">
+      <c r="F4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="H4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" s="2"/>
-      <c r="L4" s="0" t="n">
+      <c r="H4" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J4" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" s="3"/>
+      <c r="L4" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="M4" s="0" t="n">
+      <c r="M4" s="1" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+      <c r="A5" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="C5" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D5" s="0" t="s">
+      <c r="D5" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="0" t="s">
+      <c r="E5" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F5" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G5" s="2" t="s">
+      <c r="F5" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="H5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" s="2"/>
-      <c r="L5" s="0" t="n">
+      <c r="H5" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J5" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" s="3"/>
+      <c r="L5" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="M5" s="0" t="n">
+      <c r="M5" s="1" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+      <c r="A6" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="B6" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C6" s="0" t="s">
+      <c r="C6" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="0" t="s">
+      <c r="D6" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="0" t="s">
+      <c r="E6" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F6" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G6" s="2" t="s">
+      <c r="F6" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G6" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="H6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" s="2" t="n">
+      <c r="H6" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="J6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" s="2" t="s">
+      <c r="J6" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="L6" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" s="0" t="n">
+      <c r="L6" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" s="1" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+      <c r="A7" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="B7" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C7" s="0" t="s">
+      <c r="C7" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D7" s="0" t="s">
+      <c r="D7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E7" s="0" t="s">
+      <c r="E7" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="F7" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G7" s="2" t="s">
+      <c r="F7" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G7" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="H7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" s="2"/>
-      <c r="L7" s="0" t="n">
+      <c r="H7" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J7" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" s="3"/>
+      <c r="L7" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="M7" s="0" t="n">
+      <c r="M7" s="1" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+      <c r="A8" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c r="B8" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C8" s="0" t="s">
+      <c r="C8" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D8" s="0" t="s">
+      <c r="D8" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E8" s="0" t="s">
+      <c r="E8" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="F8" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G8" s="2" t="s">
+      <c r="F8" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G8" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="H8" s="2" t="n">
+      <c r="H8" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="I8" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J8" s="2" t="n">
+      <c r="I8" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J8" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="K8" s="2"/>
-      <c r="L8" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" s="0" t="n">
+      <c r="K8" s="3"/>
+      <c r="L8" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" s="1" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+      <c r="A9" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="B9" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C9" s="0" t="s">
+      <c r="C9" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D9" s="0" t="s">
+      <c r="D9" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E9" s="0" t="s">
+      <c r="E9" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="F9" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G9" s="2" t="s">
+      <c r="F9" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G9" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="H9" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J9" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="K9" s="2"/>
-      <c r="L9" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" s="0" t="n">
+      <c r="H9" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I9" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J9" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K9" s="3"/>
+      <c r="L9" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" s="1" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
+      <c r="A10" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B10" s="0" t="s">
+      <c r="B10" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C10" s="0" t="s">
+      <c r="C10" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D10" s="0" t="s">
+      <c r="D10" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="0" t="s">
+      <c r="E10" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="F10" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G10" s="2" t="s">
+      <c r="F10" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G10" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="H10" s="2" t="n">
+      <c r="H10" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="I10" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J10" s="2" t="n">
+      <c r="I10" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J10" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="K10" s="2"/>
-      <c r="L10" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" s="0" t="n">
+      <c r="K10" s="3"/>
+      <c r="L10" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" s="1" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
+      <c r="A11" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B11" s="0" t="s">
+      <c r="B11" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C11" s="0" t="s">
+      <c r="C11" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D11" s="0" t="s">
+      <c r="D11" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E11" s="0" t="s">
+      <c r="E11" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F11" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G11" s="2" t="s">
+      <c r="F11" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G11" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="H11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" s="2"/>
-      <c r="L11" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" s="0" t="n">
+      <c r="H11" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J11" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" s="3"/>
+      <c r="L11" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" s="1" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
+      <c r="A12" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B12" s="0" t="s">
+      <c r="B12" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C12" s="0" t="s">
+      <c r="C12" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D12" s="0" t="s">
+      <c r="D12" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E12" s="0" t="s">
+      <c r="E12" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="F12" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G12" s="2" t="s">
+      <c r="F12" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G12" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="H12" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J12" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="K12" s="2"/>
-      <c r="L12" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" s="0" t="n">
+      <c r="H12" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I12" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J12" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K12" s="3"/>
+      <c r="L12" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" s="1" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
+      <c r="A13" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B13" s="0" t="s">
+      <c r="B13" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C13" s="0" t="s">
+      <c r="C13" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D13" s="0" t="s">
+      <c r="D13" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E13" s="0" t="s">
+      <c r="E13" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F13" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G13" s="2" t="s">
+      <c r="F13" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G13" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="H13" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J13" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K13" s="2"/>
-      <c r="L13" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" s="0" t="n">
+      <c r="H13" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J13" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" s="3"/>
+      <c r="L13" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" s="1" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
+      <c r="A14" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B14" s="0" t="s">
+      <c r="B14" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C14" s="0" t="s">
+      <c r="C14" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D14" s="0" t="s">
+      <c r="D14" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E14" s="0" t="s">
+      <c r="E14" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F14" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G14" s="2" t="s">
+      <c r="F14" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G14" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="H14" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" s="2" t="n">
+      <c r="H14" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="J14" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" s="2" t="s">
+      <c r="J14" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="L14" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" s="0" t="n">
+      <c r="L14" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" s="1" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
+      <c r="A15" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B15" s="0" t="s">
+      <c r="B15" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C15" s="0" t="s">
+      <c r="C15" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D15" s="0" t="s">
+      <c r="D15" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E15" s="0" t="s">
+      <c r="E15" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="F15" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G15" s="2" t="s">
+      <c r="F15" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G15" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="H15" s="2" t="n">
+      <c r="H15" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="I15" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J15" s="2" t="n">
+      <c r="I15" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J15" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="K15" s="2"/>
-      <c r="L15" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" s="0" t="n">
+      <c r="K15" s="3"/>
+      <c r="L15" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" s="1" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
+      <c r="A16" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B16" s="0" t="s">
+      <c r="B16" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C16" s="0" t="s">
+      <c r="C16" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="D16" s="0" t="s">
+      <c r="D16" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E16" s="0" t="s">
+      <c r="E16" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="F16" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G16" s="2" t="s">
+      <c r="F16" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G16" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="H16" s="2" t="n">
+      <c r="H16" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="I16" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J16" s="2" t="n">
+      <c r="I16" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J16" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="K16" s="2"/>
-      <c r="L16" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" s="0" t="n">
+      <c r="K16" s="3"/>
+      <c r="L16" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" s="1" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
+      <c r="A17" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B17" s="0" t="s">
+      <c r="B17" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C17" s="0" t="s">
+      <c r="C17" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="D17" s="0" t="s">
+      <c r="D17" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E17" s="0" t="s">
+      <c r="E17" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="F17" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G17" s="2" t="s">
+      <c r="F17" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G17" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="H17" s="2" t="n">
+      <c r="H17" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="I17" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J17" s="2" t="n">
+      <c r="I17" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J17" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="K17" s="2"/>
-      <c r="L17" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" s="0" t="n">
+      <c r="K17" s="3"/>
+      <c r="L17" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" s="1" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
+      <c r="A18" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B18" s="0" t="s">
+      <c r="B18" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C18" s="0" t="s">
+      <c r="C18" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="D18" s="0" t="s">
+      <c r="D18" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E18" s="0" t="s">
+      <c r="E18" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="F18" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G18" s="2" t="s">
+      <c r="F18" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G18" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="H18" s="2" t="n">
+      <c r="H18" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="I18" s="2" t="n">
+      <c r="I18" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="J18" s="2" t="n">
+      <c r="J18" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="K18" s="2" t="s">
+      <c r="K18" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="L18" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" s="0" t="n">
+      <c r="L18" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" s="1" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
+      <c r="A19" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B19" s="0" t="s">
+      <c r="B19" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C19" s="0" t="s">
+      <c r="C19" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="D19" s="0" t="s">
+      <c r="D19" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E19" s="0" t="s">
+      <c r="E19" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="F19" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G19" s="2" t="s">
+      <c r="F19" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G19" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="H19" s="2" t="n">
+      <c r="H19" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="I19" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J19" s="2" t="n">
+      <c r="I19" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J19" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="K19" s="2"/>
-      <c r="L19" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" s="0" t="n">
+      <c r="K19" s="3"/>
+      <c r="L19" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" s="1" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="s">
+      <c r="A20" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B20" s="0" t="s">
+      <c r="B20" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="C20" s="0" t="s">
+      <c r="C20" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D20" s="0" t="s">
+      <c r="D20" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E20" s="0" t="s">
+      <c r="E20" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="F20" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G20" s="2" t="s">
+      <c r="F20" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G20" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="H20" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J20" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" s="2"/>
-      <c r="L20" s="0" t="n">
+      <c r="H20" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J20" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3"/>
+      <c r="L20" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="M20" s="0" t="n">
+      <c r="M20" s="1" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="s">
+      <c r="A21" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B21" s="0" t="s">
+      <c r="B21" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="C21" s="0" t="s">
+      <c r="C21" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="D21" s="0" t="s">
+      <c r="D21" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E21" s="0" t="s">
+      <c r="E21" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="F21" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G21" s="2" t="s">
+      <c r="F21" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G21" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="H21" s="2" t="n">
+      <c r="H21" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="I21" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J21" s="2" t="n">
+      <c r="I21" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J21" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="K21" s="2"/>
-      <c r="L21" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" s="0" t="n">
+      <c r="K21" s="3"/>
+      <c r="L21" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" s="1" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="s">
+      <c r="A22" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B22" s="0" t="s">
+      <c r="B22" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="C22" s="0" t="s">
+      <c r="C22" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D22" s="0" t="s">
+      <c r="D22" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E22" s="0" t="s">
+      <c r="E22" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="F22" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H22" s="2" t="n">
+      <c r="F22" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G22" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="H22" s="3" t="n">
         <v>4</v>
       </c>
-      <c r="I22" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J22" s="2" t="n">
+      <c r="I22" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J22" s="3" t="n">
         <v>4</v>
       </c>
-      <c r="K22" s="2"/>
-      <c r="L22" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" s="0" t="n">
+      <c r="K22" s="3"/>
+      <c r="L22" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" s="1" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="s">
+      <c r="A23" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B23" s="0" t="s">
+      <c r="B23" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="C23" s="0" t="s">
+      <c r="C23" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="D23" s="0" t="s">
+      <c r="D23" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E23" s="0" t="s">
+      <c r="E23" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="F23" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G23" s="2" t="s">
+      <c r="F23" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G23" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="H23" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J23" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" s="2"/>
-      <c r="L23" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" s="0" t="n">
+      <c r="H23" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J23" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" s="3"/>
+      <c r="L23" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" s="1" t="n">
         <v>22</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="n">
+      <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="B24" s="0" t="s">
+      <c r="B24" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="D24" s="0" t="n">
-        <v>-1</v>
-      </c>
-      <c r="E24" s="0" t="n">
+      <c r="D24" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="E24" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="F24" s="2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="G24" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H24" s="2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="I24" s="2" t="n">
+      <c r="F24" s="3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="G24" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" s="3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I24" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="J24" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="K24" s="2"/>
-      <c r="L24" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" s="0" t="n">
+      <c r="J24" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K24" s="3"/>
+      <c r="L24" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" s="1" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="n">
+      <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="B25" s="0" t="s">
+      <c r="B25" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="C25" s="0" t="s">
+      <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D25" s="0" t="s">
+      <c r="D25" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E25" s="0" t="s">
+      <c r="E25" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="F25" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G25" s="2" t="s">
+      <c r="F25" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G25" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="H25" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" s="2" t="n">
+      <c r="H25" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="J25" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K25" s="2" t="s">
+      <c r="J25" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="L25" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" s="0" t="n">
+      <c r="L25" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" s="1" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="n">
+      <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="B26" s="0" t="s">
+      <c r="B26" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="C26" s="0" t="s">
+      <c r="C26" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D26" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E26" s="0" t="n">
+      <c r="D26" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E26" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="F26" s="0" t="n">
+      <c r="F26" s="1" t="n">
         <v>100</v>
       </c>
-      <c r="G26" s="0" t="n">
+      <c r="G26" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="H26" s="0" t="n">
+      <c r="H26" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="I26" s="0" t="n">
+      <c r="I26" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="J26" s="0" t="n">
+      <c r="J26" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="K26" s="0" t="s">
+      <c r="K26" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="L26" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" s="0" t="n">
+      <c r="L26" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" s="1" t="n">
         <v>-1</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="n">
+      <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="B27" s="0" t="s">
+      <c r="B27" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="C27" s="0" t="s">
+      <c r="C27" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="D27" s="0" t="n">
+      <c r="D27" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="E27" s="0" t="n">
+      <c r="E27" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="F27" s="0" t="n">
+      <c r="F27" s="1" t="n">
         <v>100</v>
       </c>
-      <c r="G27" s="0" t="n">
+      <c r="G27" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="H27" s="0" t="n">
+      <c r="H27" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="I27" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="J27" s="0" t="n">
+      <c r="I27" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J27" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="L27" s="0" t="n">
+      <c r="L27" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="M27" s="0" t="n">
+      <c r="M27" s="1" t="n">
         <v>26</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="n">
+      <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="B28" s="0" t="s">
+      <c r="B28" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="D28" s="0" t="n">
-        <v>-1</v>
-      </c>
-      <c r="E28" s="0" t="n">
+      <c r="D28" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="E28" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="F28" s="0" t="n">
-        <v>-1</v>
-      </c>
-      <c r="G28" s="0" t="n">
-        <v>-1</v>
-      </c>
-      <c r="H28" s="0" t="n">
+      <c r="F28" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="G28" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H28" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="I28" s="0" t="n">
+      <c r="I28" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="J28" s="0" t="n">
+      <c r="J28" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="L28" s="0" t="n">
-        <v>-1</v>
-      </c>
-      <c r="M28" s="0" t="n">
+      <c r="L28" s="1" t="n">
+        <v>-1</v>
+      </c>
+      <c r="M28" s="1" t="n">
         <v>-1</v>
       </c>
     </row>

--- a/Excel/Skill.xlsx
+++ b/Excel/Skill.xlsx
@@ -36,7 +36,8 @@
     <t xml:space="preserve">None = 1,
 Straight = 2
 Parabola = 3
-Through = 4</t>
+Through = 4,
+Near=5</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -884,7 +885,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="23.86"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="49.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="78.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="H1" s="2" t="s">
         <v>0</v>
       </c>
@@ -975,7 +976,7 @@
         <v>1</v>
       </c>
       <c r="K3" s="9" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L3" s="9" t="n">
         <v>-1</v>
@@ -1377,7 +1378,7 @@
         <v>51</v>
       </c>
       <c r="K12" s="9" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L12" s="9" t="n">
         <v>-1</v>
@@ -1780,7 +1781,7 @@
       </c>
       <c r="J21" s="9"/>
       <c r="K21" s="9" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L21" s="9" t="n">
         <v>-1</v>
@@ -1827,7 +1828,7 @@
         <v>86</v>
       </c>
       <c r="K22" s="9" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L22" s="9" t="n">
         <v>-1</v>
